--- a/volume_calculations/SLR liters per person etc.xlsx
+++ b/volume_calculations/SLR liters per person etc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Dropbox/Arctic Risk/Arctic_Risk_updates/volume_calculations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184D553E-B6C9-F543-A123-266F9F849F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683BF2AE-D2F6-1D4E-986D-7FADC87B5CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27380" windowHeight="22420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
-    <t>Greenland sea level and water calculations by Jason Box</t>
-  </si>
-  <si>
     <t>data source</t>
   </si>
   <si>
@@ -269,6 +266,9 @@
   <si>
     <t>millions of liters per second</t>
   </si>
+  <si>
+    <t>sea level and water calculations by Jason Box with sanity check from W. Colgan</t>
+  </si>
 </sst>
 </file>
 
@@ -278,7 +278,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -317,6 +317,13 @@
       <sz val="10"/>
       <color indexed="14"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -426,9 +433,6 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -443,6 +447,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1604,7 +1611,7 @@
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="14" customHeight="1"/>
@@ -1618,8 +1625,8 @@
   <sheetData>
     <row r="1" spans="1:12" ht="14.75" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="17" t="s">
-        <v>55</v>
+      <c r="B1" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1634,13 +1641,13 @@
     </row>
     <row r="2" spans="1:12" ht="14.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1656,11 +1663,11 @@
         <v>437</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1672,17 +1679,17 @@
     </row>
     <row r="4" spans="1:12" ht="14.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="18">
+        <v>2</v>
+      </c>
+      <c r="B4" s="17">
         <f>B3*1000000000/8760/3600</f>
         <v>13857.179096905124</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1699,7 +1706,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1711,7 +1718,7 @@
     </row>
     <row r="6" spans="1:12" ht="17" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="5"/>
@@ -1720,11 +1727,11 @@
         <v>7.7210000000000001</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -1733,25 +1740,25 @@
     </row>
     <row r="7" spans="1:12" ht="14.75" customHeight="1">
       <c r="A7" s="7"/>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <f>B3/E6</f>
         <v>56.598886154643182</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="E7" s="12">
         <v>100</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -1760,12 +1767,12 @@
     </row>
     <row r="8" spans="1:12" ht="14.75" customHeight="1">
       <c r="A8" s="7"/>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <f>B4*1000</f>
         <v>13857179.096905123</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1779,12 +1786,12 @@
     </row>
     <row r="9" spans="1:12" ht="14.75" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <f>$B$7*1000</f>
         <v>56598.88615464318</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1798,12 +1805,12 @@
     </row>
     <row r="10" spans="1:12" ht="14.75" customHeight="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <f>$B$7*1000/3.785</f>
         <v>14953.470582468475</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1817,12 +1824,12 @@
     </row>
     <row r="11" spans="1:12" ht="14.75" customHeight="1">
       <c r="A11" s="7"/>
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <f>B9/E7</f>
         <v>565.98886154643185</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1836,12 +1843,12 @@
     </row>
     <row r="12" spans="1:12" ht="14.75" customHeight="1">
       <c r="A12" s="7"/>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <f>B11/365</f>
         <v>1.5506544151957038</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1855,12 +1862,12 @@
     </row>
     <row r="13" spans="1:12" ht="14.75" customHeight="1">
       <c r="A13" s="7"/>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <f>$B$9/365</f>
         <v>155.06544151957036</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1874,12 +1881,12 @@
     </row>
     <row r="14" spans="1:12" ht="14.75" customHeight="1">
       <c r="A14" s="7"/>
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <f>B13*86400/1000000</f>
         <v>13.397654147290877</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1893,12 +1900,12 @@
     </row>
     <row r="15" spans="1:12" ht="14.75" customHeight="1">
       <c r="A15" s="7"/>
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <f>$B$9/365/3.785</f>
         <v>40.968412554708152</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1941,14 +1948,14 @@
     <row r="18" spans="1:12" ht="14.75" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -1960,20 +1967,20 @@
     </row>
     <row r="19" spans="1:12" ht="14.75" customHeight="1">
       <c r="A19" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="20">
+        <v>22</v>
+      </c>
+      <c r="B19" s="19">
         <f t="shared" ref="B19:B26" si="0">$B$4/D19</f>
         <v>6.630229232968958E-2</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="4">
         <v>209000</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -1985,18 +1992,18 @@
     </row>
     <row r="20" spans="1:12" ht="14.75" customHeight="1">
       <c r="A20" s="7"/>
-      <c r="B20" s="20">
+      <c r="B20" s="19">
         <f t="shared" si="0"/>
         <v>0.45930325147183043</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="4">
         <v>30170</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -2008,18 +2015,18 @@
     </row>
     <row r="21" spans="1:12" ht="17" customHeight="1">
       <c r="A21" s="7"/>
-      <c r="B21" s="20">
+      <c r="B21" s="19">
         <f t="shared" si="0"/>
         <v>0.82522505341264429</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="4">
         <v>16792</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -2031,18 +2038,18 @@
     </row>
     <row r="22" spans="1:12" ht="14.75" customHeight="1">
       <c r="A22" s="7"/>
-      <c r="B22" s="20">
+      <c r="B22" s="19">
         <f t="shared" si="0"/>
         <v>1.1528435188772981</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="4">
         <v>12020</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -2054,18 +2061,18 @@
     </row>
     <row r="23" spans="1:12" ht="14.75" customHeight="1">
       <c r="A23" s="7"/>
-      <c r="B23" s="20">
+      <c r="B23" s="19">
         <f t="shared" si="0"/>
         <v>2.1318737072161729</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="4">
         <v>6500</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -2077,18 +2084,18 @@
     </row>
     <row r="24" spans="1:12" ht="17" customHeight="1">
       <c r="A24" s="7"/>
-      <c r="B24" s="20">
+      <c r="B24" s="19">
         <f t="shared" si="0"/>
         <v>4.8965297162208916</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="4">
         <v>2830</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -2100,18 +2107,18 @@
     </row>
     <row r="25" spans="1:12" ht="17" customHeight="1">
       <c r="A25" s="7"/>
-      <c r="B25" s="20">
+      <c r="B25" s="19">
         <f t="shared" si="0"/>
         <v>6.9285895484525621</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="4">
         <v>2000</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -2123,18 +2130,18 @@
     </row>
     <row r="26" spans="1:12" ht="17" customHeight="1">
       <c r="A26" s="7"/>
-      <c r="B26" s="18">
+      <c r="B26" s="17">
         <f t="shared" si="0"/>
         <v>210.59542700463714</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="4">
         <v>65.8</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -2160,20 +2167,20 @@
     </row>
     <row r="28" spans="1:12" ht="14.75" customHeight="1">
       <c r="A28" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" s="4">
         <v>41000</v>
       </c>
       <c r="E28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -2190,7 +2197,7 @@
         <v>40</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -2209,7 +2216,7 @@
         <v>1640000</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -2223,12 +2230,12 @@
       <c r="A31" s="7"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="18">
+      <c r="D31" s="17">
         <f>B3*1000000000/D30</f>
         <v>266463.41463414632</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -2242,12 +2249,12 @@
       <c r="A32" s="7"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="18">
+      <c r="D32" s="17">
         <f>D31/365.25</f>
         <v>729.53706949800494</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -2275,13 +2282,13 @@
       <c r="A34" s="7"/>
       <c r="B34" s="4"/>
       <c r="C34" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D34" s="14">
         <v>7.8</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -2300,7 +2307,7 @@
         <v>78000</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -2314,14 +2321,14 @@
       <c r="A36" s="7"/>
       <c r="B36" s="4"/>
       <c r="C36" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="21">
+        <v>49</v>
+      </c>
+      <c r="D36" s="20">
         <f>B3*1000000000/D35/365.25</f>
         <v>15338.984538163184</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -2349,13 +2356,13 @@
       <c r="A38" s="7"/>
       <c r="B38" s="4"/>
       <c r="C38" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D38" s="14">
         <v>588000000</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -2369,12 +2376,12 @@
       <c r="A39" s="7"/>
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="22">
+      <c r="D39" s="21">
         <f>B3*1000000000/D38</f>
         <v>743.19727891156458</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
@@ -2388,12 +2395,12 @@
       <c r="A40" s="7"/>
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="22">
+      <c r="D40" s="21">
         <f>D39/365.25</f>
         <v>2.034763255062463</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>

--- a/volume_calculations/SLR liters per person etc.xlsx
+++ b/volume_calculations/SLR liters per person etc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Dropbox/Arctic Risk/Arctic_Risk_updates/volume_calculations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683BF2AE-D2F6-1D4E-986D-7FADC87B5CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA5E941-989F-0D4D-80FD-72235F510923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27380" windowHeight="22420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
   <si>
     <t>data source</t>
   </si>
@@ -269,6 +269,12 @@
   <si>
     <t>sea level and water calculations by Jason Box with sanity check from W. Colgan</t>
   </si>
+  <si>
+    <t>Manhattan Is</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Manhattan</t>
+  </si>
 </sst>
 </file>
 
@@ -278,7 +284,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -319,8 +325,20 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -376,12 +394,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -448,11 +469,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1611,7 +1642,7 @@
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="14" customHeight="1"/>
@@ -2377,7 +2408,7 @@
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
       <c r="D39" s="21">
-        <f>B3*1000000000/D38</f>
+        <f>$B$3*1000000000/D38</f>
         <v>743.19727891156458</v>
       </c>
       <c r="E39" s="6" t="s">
@@ -2427,9 +2458,15 @@
     <row r="42" spans="1:12" ht="14.75" customHeight="1">
       <c r="A42" s="7"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+      <c r="C42" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="5">
+        <v>87000000</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>59</v>
+      </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -2442,8 +2479,13 @@
       <c r="A43" s="7"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
+      <c r="D43" s="24">
+        <f>$B$3*1000000000/D42</f>
+        <v>5022.9885057471265</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
@@ -2456,8 +2498,13 @@
       <c r="A44" s="7"/>
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
+      <c r="D44" s="24">
+        <f>D43/365.25</f>
+        <v>13.752193034215267</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
@@ -2616,6 +2663,7 @@
     <hyperlink ref="E25" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="E26" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="F28" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E42" r:id="rId9" xr:uid="{2F64CF37-F584-964F-AE13-6EA3930AF03C}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.25" footer="0.25"/>
   <pageSetup orientation="landscape"/>
